--- a/data/0. old data/0. raw/2016/companies/allergan.xlsx
+++ b/data/0. old data/0. raw/2016/companies/allergan.xlsx
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">allergan!$B$1:$B$160</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1240,9 +1240,6 @@
     </r>
   </si>
   <si>
-    <t>Ben</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1472,6 +1469,9 @@
   </si>
   <si>
     <t>allergan</t>
+  </si>
+  <si>
+    <t>c/o Inselspital, Universitätsklinik für Neurologie</t>
   </si>
 </sst>
 </file>
@@ -1992,7 +1992,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B8:B16"/>
+      <selection pane="bottomLeft" activeCell="D148" sqref="D148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -7146,7 +7146,7 @@
         <v>23</v>
       </c>
       <c r="D112" s="26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E112" s="27"/>
       <c r="F112" s="28"/>
@@ -7313,7 +7313,7 @@
     </row>
     <row r="116" spans="1:27" s="32" customFormat="1">
       <c r="A116" s="25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B116" s="26" t="s">
         <v>252</v>
@@ -7322,7 +7322,7 @@
         <v>23</v>
       </c>
       <c r="D116" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E116" s="27"/>
       <c r="F116" s="28"/>
@@ -7357,7 +7357,7 @@
     </row>
     <row r="117" spans="1:27" s="32" customFormat="1">
       <c r="A117" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B117" s="26" t="s">
         <v>252</v>
@@ -7489,7 +7489,7 @@
     </row>
     <row r="120" spans="1:27" s="32" customFormat="1">
       <c r="A120" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B120" s="26" t="s">
         <v>124</v>
@@ -7533,7 +7533,7 @@
     </row>
     <row r="121" spans="1:27" s="32" customFormat="1">
       <c r="A121" s="25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B121" s="26" t="s">
         <v>72</v>
@@ -7577,7 +7577,7 @@
     </row>
     <row r="122" spans="1:27" s="32" customFormat="1">
       <c r="A122" s="25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B122" s="26" t="s">
         <v>42</v>
@@ -7621,7 +7621,7 @@
     </row>
     <row r="123" spans="1:27" s="32" customFormat="1">
       <c r="A123" s="25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B123" s="26" t="s">
         <v>252</v>
@@ -7630,7 +7630,7 @@
         <v>23</v>
       </c>
       <c r="D123" s="26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E123" s="27"/>
       <c r="F123" s="28"/>
@@ -7709,7 +7709,7 @@
     </row>
     <row r="125" spans="1:27" s="32" customFormat="1">
       <c r="A125" s="25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B125" s="26" t="s">
         <v>75</v>
@@ -7718,7 +7718,7 @@
         <v>23</v>
       </c>
       <c r="D125" s="26" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E125" s="27"/>
       <c r="F125" s="28"/>
@@ -8158,7 +8158,7 @@
         <v>23</v>
       </c>
       <c r="D135" s="26" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E135" s="27"/>
       <c r="F135" s="28"/>
@@ -8545,7 +8545,7 @@
     </row>
     <row r="144" spans="1:27" s="32" customFormat="1">
       <c r="A144" s="25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B144" s="26" t="s">
         <v>28</v>
@@ -8686,7 +8686,7 @@
         <v>23</v>
       </c>
       <c r="D147" s="26" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="E147" s="27"/>
       <c r="F147" s="28"/>
@@ -8721,7 +8721,7 @@
     </row>
     <row r="148" spans="1:27" s="32" customFormat="1">
       <c r="A148" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B148" s="26" t="s">
         <v>25</v>
@@ -8730,7 +8730,7 @@
         <v>23</v>
       </c>
       <c r="D148" s="26" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E148" s="27"/>
       <c r="F148" s="28"/>
@@ -8765,7 +8765,7 @@
     </row>
     <row r="149" spans="1:27" s="32" customFormat="1">
       <c r="A149" s="25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B149" s="26" t="s">
         <v>28</v>
@@ -8774,7 +8774,7 @@
         <v>23</v>
       </c>
       <c r="D149" s="26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E149" s="27"/>
       <c r="F149" s="28"/>
@@ -8809,7 +8809,7 @@
     </row>
     <row r="150" spans="1:27" s="32" customFormat="1">
       <c r="A150" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B150" s="26" t="s">
         <v>252</v>
@@ -8818,7 +8818,7 @@
         <v>23</v>
       </c>
       <c r="D150" s="26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E150" s="27"/>
       <c r="F150" s="28"/>
@@ -8853,7 +8853,7 @@
     </row>
     <row r="151" spans="1:27" s="32" customFormat="1">
       <c r="A151" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B151" s="26" t="s">
         <v>36</v>
@@ -8897,7 +8897,7 @@
     </row>
     <row r="152" spans="1:27" s="32" customFormat="1">
       <c r="A152" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B152" s="26" t="s">
         <v>36</v>
@@ -8906,7 +8906,7 @@
         <v>23</v>
       </c>
       <c r="D152" s="26" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E152" s="27"/>
       <c r="F152" s="28"/>
@@ -8941,7 +8941,7 @@
     </row>
     <row r="153" spans="1:27" s="32" customFormat="1">
       <c r="A153" s="25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B153" s="26" t="s">
         <v>25</v>
@@ -8985,7 +8985,7 @@
     </row>
     <row r="154" spans="1:27" s="32" customFormat="1">
       <c r="A154" s="25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B154" s="26" t="s">
         <v>25</v>
@@ -8994,7 +8994,7 @@
         <v>23</v>
       </c>
       <c r="D154" s="26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E154" s="27"/>
       <c r="F154" s="28"/>
@@ -9029,7 +9029,7 @@
     </row>
     <row r="155" spans="1:27" s="32" customFormat="1">
       <c r="A155" s="25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B155" s="26" t="s">
         <v>25</v>
@@ -9038,7 +9038,7 @@
         <v>23</v>
       </c>
       <c r="D155" s="26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E155" s="27"/>
       <c r="F155" s="28"/>
@@ -9073,7 +9073,7 @@
     </row>
     <row r="156" spans="1:27" s="32" customFormat="1">
       <c r="A156" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B156" s="26" t="s">
         <v>25</v>
@@ -9082,7 +9082,7 @@
         <v>23</v>
       </c>
       <c r="D156" s="26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E156" s="27"/>
       <c r="F156" s="28"/>
@@ -9117,7 +9117,7 @@
     </row>
     <row r="157" spans="1:27" s="32" customFormat="1">
       <c r="A157" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B157" s="26" t="s">
         <v>25</v>
@@ -9161,7 +9161,7 @@
     </row>
     <row r="158" spans="1:27" s="32" customFormat="1">
       <c r="A158" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B158" s="26" t="s">
         <v>323</v>
@@ -9205,7 +9205,7 @@
     </row>
     <row r="159" spans="1:27" s="32" customFormat="1">
       <c r="A159" s="25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B159" s="26" t="s">
         <v>25</v>
@@ -9214,7 +9214,7 @@
         <v>23</v>
       </c>
       <c r="D159" s="26" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E159" s="27"/>
       <c r="F159" s="28"/>
@@ -9249,7 +9249,7 @@
     </row>
     <row r="160" spans="1:27" s="32" customFormat="1">
       <c r="A160" s="25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B160" s="26" t="s">
         <v>25</v>
@@ -9258,7 +9258,7 @@
         <v>23</v>
       </c>
       <c r="D160" s="26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E160" s="27"/>
       <c r="F160" s="28"/>
@@ -9343,7 +9343,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B2" s="21">
         <v>2016</v>
@@ -9366,7 +9366,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B3" s="21">
         <v>2016</v>
@@ -9389,7 +9389,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B4" s="21">
         <v>2016</v>
@@ -9412,7 +9412,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B5" s="21">
         <v>2016</v>
@@ -9435,7 +9435,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B6" s="21">
         <v>2016</v>
@@ -9452,7 +9452,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B7" s="21">
         <v>2016</v>
@@ -9475,7 +9475,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B8" s="21">
         <v>2016</v>
@@ -9492,7 +9492,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B9" s="21">
         <v>2016</v>
@@ -9509,7 +9509,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B10" s="21">
         <v>2016</v>
@@ -9526,7 +9526,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B11" s="21">
         <v>2016</v>

--- a/data/0. old data/0. raw/2016/companies/allergan.xlsx
+++ b/data/0. old data/0. raw/2016/companies/allergan.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="380">
   <si>
     <t>location</t>
   </si>
@@ -310,9 +310,6 @@
     <t>Rue des Mooulins 4,1800 Vevey</t>
   </si>
   <si>
-    <t>Winterhtur</t>
-  </si>
-  <si>
     <t>Burgstrasse 109c, 8408 Winterthur</t>
   </si>
   <si>
@@ -452,9 +449,6 @@
   </si>
   <si>
     <t>Spitalstrasse 6, 2237 lllanz</t>
-  </si>
-  <si>
-    <t>Florgen</t>
   </si>
   <si>
     <t>Zugerstsrasse 35, 8810 Horgen</t>
@@ -1472,6 +1466,9 @@
   </si>
   <si>
     <t>c/o Inselspital, Universitätsklinik für Neurologie</t>
+  </si>
+  <si>
+    <t>Horgen</t>
   </si>
 </sst>
 </file>
@@ -1545,8 +1542,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1639,7 +1638,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="17">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -1647,6 +1646,7 @@
     <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -1654,6 +1654,7 @@
     <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1990,9 +1991,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D148" sqref="D148"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2069,7 +2070,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>22</v>
@@ -2113,7 +2114,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>25</v>
@@ -2161,7 +2162,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>25</v>
@@ -2209,7 +2210,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>28</v>
@@ -2255,7 +2256,7 @@
     </row>
     <row r="6" spans="1:27" ht="28" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>30</v>
@@ -2301,7 +2302,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>32</v>
@@ -2345,16 +2346,16 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="16"/>
@@ -2391,7 +2392,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>34</v>
@@ -2435,7 +2436,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>36</v>
@@ -2479,7 +2480,7 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>38</v>
@@ -2527,7 +2528,7 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>40</v>
@@ -2577,7 +2578,7 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>42</v>
@@ -2623,7 +2624,7 @@
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>44</v>
@@ -2667,16 +2668,16 @@
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="16"/>
@@ -2711,16 +2712,16 @@
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="16"/>
@@ -2755,16 +2756,16 @@
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="16"/>
@@ -2803,16 +2804,16 @@
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="16"/>
@@ -2849,16 +2850,16 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="16"/>
@@ -2895,16 +2896,16 @@
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="16"/>
@@ -2943,7 +2944,7 @@
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>46</v>
@@ -2987,16 +2988,16 @@
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="16"/>
@@ -3033,7 +3034,7 @@
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>25</v>
@@ -3079,7 +3080,7 @@
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>34</v>
@@ -3123,7 +3124,7 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>50</v>
@@ -3169,7 +3170,7 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>52</v>
@@ -3217,7 +3218,7 @@
     </row>
     <row r="27" spans="1:27">
       <c r="A27" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>36</v>
@@ -3261,7 +3262,7 @@
     </row>
     <row r="28" spans="1:27">
       <c r="A28" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>25</v>
@@ -3305,7 +3306,7 @@
     </row>
     <row r="29" spans="1:27">
       <c r="A29" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>56</v>
@@ -3351,7 +3352,7 @@
     </row>
     <row r="30" spans="1:27">
       <c r="A30" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>56</v>
@@ -3399,7 +3400,7 @@
     </row>
     <row r="31" spans="1:27">
       <c r="A31" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>25</v>
@@ -3447,7 +3448,7 @@
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>25</v>
@@ -3495,7 +3496,7 @@
     </row>
     <row r="33" spans="1:27">
       <c r="A33" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>61</v>
@@ -3539,7 +3540,7 @@
     </row>
     <row r="34" spans="1:27">
       <c r="A34" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>63</v>
@@ -3583,7 +3584,7 @@
     </row>
     <row r="35" spans="1:27">
       <c r="A35" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>25</v>
@@ -3631,7 +3632,7 @@
     </row>
     <row r="36" spans="1:27">
       <c r="A36" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>46</v>
@@ -3675,7 +3676,7 @@
     </row>
     <row r="37" spans="1:27">
       <c r="A37" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>36</v>
@@ -3725,7 +3726,7 @@
     </row>
     <row r="38" spans="1:27">
       <c r="A38" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>68</v>
@@ -3771,7 +3772,7 @@
     </row>
     <row r="39" spans="1:27">
       <c r="A39" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>25</v>
@@ -3817,7 +3818,7 @@
     </row>
     <row r="40" spans="1:27">
       <c r="A40" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>68</v>
@@ -3861,7 +3862,7 @@
     </row>
     <row r="41" spans="1:27">
       <c r="A41" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>25</v>
@@ -3905,7 +3906,7 @@
     </row>
     <row r="42" spans="1:27">
       <c r="A42" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>72</v>
@@ -3951,7 +3952,7 @@
     </row>
     <row r="43" spans="1:27">
       <c r="A43" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>32</v>
@@ -3995,7 +3996,7 @@
     </row>
     <row r="44" spans="1:27">
       <c r="A44" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>75</v>
@@ -4004,7 +4005,7 @@
         <v>23</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="16"/>
@@ -4043,16 +4044,16 @@
     </row>
     <row r="45" spans="1:27">
       <c r="A45" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="16"/>
@@ -4087,7 +4088,7 @@
     </row>
     <row r="46" spans="1:27">
       <c r="A46" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>25</v>
@@ -4135,7 +4136,7 @@
     </row>
     <row r="47" spans="1:27">
       <c r="A47" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>76</v>
@@ -4179,7 +4180,7 @@
     </row>
     <row r="48" spans="1:27">
       <c r="A48" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>28</v>
@@ -4229,7 +4230,7 @@
     </row>
     <row r="49" spans="1:27">
       <c r="A49" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>79</v>
@@ -4277,7 +4278,7 @@
     </row>
     <row r="50" spans="1:27">
       <c r="A50" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>46</v>
@@ -4321,7 +4322,7 @@
     </row>
     <row r="51" spans="1:27">
       <c r="A51" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>36</v>
@@ -4367,7 +4368,7 @@
     </row>
     <row r="52" spans="1:27">
       <c r="A52" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>52</v>
@@ -4415,16 +4416,16 @@
     </row>
     <row r="53" spans="1:27">
       <c r="A53" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="16"/>
@@ -4461,16 +4462,16 @@
     </row>
     <row r="54" spans="1:27">
       <c r="A54" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="16"/>
@@ -4507,7 +4508,7 @@
     </row>
     <row r="55" spans="1:27">
       <c r="A55" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>36</v>
@@ -4551,7 +4552,7 @@
     </row>
     <row r="56" spans="1:27">
       <c r="A56" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>38</v>
@@ -4595,7 +4596,7 @@
     </row>
     <row r="57" spans="1:27">
       <c r="A57" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>42</v>
@@ -4643,7 +4644,7 @@
     </row>
     <row r="58" spans="1:27">
       <c r="A58" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>38</v>
@@ -4687,7 +4688,7 @@
     </row>
     <row r="59" spans="1:27">
       <c r="A59" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>25</v>
@@ -4731,7 +4732,7 @@
     </row>
     <row r="60" spans="1:27">
       <c r="A60" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>36</v>
@@ -4777,7 +4778,7 @@
     </row>
     <row r="61" spans="1:27">
       <c r="A61" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>25</v>
@@ -4823,7 +4824,7 @@
     </row>
     <row r="62" spans="1:27">
       <c r="A62" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>28</v>
@@ -4867,7 +4868,7 @@
     </row>
     <row r="63" spans="1:27">
       <c r="A63" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>91</v>
@@ -4876,7 +4877,7 @@
         <v>23</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="16"/>
@@ -4911,7 +4912,7 @@
     </row>
     <row r="64" spans="1:27">
       <c r="A64" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>25</v>
@@ -4961,7 +4962,7 @@
     </row>
     <row r="65" spans="1:27">
       <c r="A65" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>93</v>
@@ -5009,7 +5010,7 @@
     </row>
     <row r="66" spans="1:27">
       <c r="A66" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>36</v>
@@ -5057,16 +5058,16 @@
     </row>
     <row r="67" spans="1:27">
       <c r="A67" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="16"/>
@@ -5103,7 +5104,7 @@
     </row>
     <row r="68" spans="1:27">
       <c r="A68" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>25</v>
@@ -5112,7 +5113,7 @@
         <v>23</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="16"/>
@@ -5149,16 +5150,16 @@
     </row>
     <row r="69" spans="1:27">
       <c r="A69" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="16"/>
@@ -5193,16 +5194,16 @@
     </row>
     <row r="70" spans="1:27">
       <c r="A70" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="16"/>
@@ -5237,16 +5238,16 @@
     </row>
     <row r="71" spans="1:27">
       <c r="A71" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="16"/>
@@ -5281,16 +5282,16 @@
     </row>
     <row r="72" spans="1:27">
       <c r="A72" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="16"/>
@@ -5325,16 +5326,16 @@
     </row>
     <row r="73" spans="1:27">
       <c r="A73" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="16"/>
@@ -5369,7 +5370,7 @@
     </row>
     <row r="74" spans="1:27">
       <c r="A74" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>25</v>
@@ -5378,7 +5379,7 @@
         <v>23</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="16"/>
@@ -5419,16 +5420,16 @@
     </row>
     <row r="75" spans="1:27">
       <c r="A75" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="16"/>
@@ -5463,7 +5464,7 @@
     </row>
     <row r="76" spans="1:27">
       <c r="A76" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>25</v>
@@ -5472,7 +5473,7 @@
         <v>23</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="16"/>
@@ -5511,7 +5512,7 @@
     </row>
     <row r="77" spans="1:27">
       <c r="A77" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>25</v>
@@ -5520,7 +5521,7 @@
         <v>23</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="16"/>
@@ -5557,7 +5558,7 @@
     </row>
     <row r="78" spans="1:27">
       <c r="A78" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>25</v>
@@ -5566,7 +5567,7 @@
         <v>23</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="16"/>
@@ -5607,16 +5608,16 @@
     </row>
     <row r="79" spans="1:27">
       <c r="A79" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="16"/>
@@ -5651,16 +5652,16 @@
     </row>
     <row r="80" spans="1:27">
       <c r="A80" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="16"/>
@@ -5695,7 +5696,7 @@
     </row>
     <row r="81" spans="1:27">
       <c r="A81" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>25</v>
@@ -5704,7 +5705,7 @@
         <v>23</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="16"/>
@@ -5745,16 +5746,16 @@
     </row>
     <row r="82" spans="1:27">
       <c r="A82" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="16"/>
@@ -5793,7 +5794,7 @@
     </row>
     <row r="83" spans="1:27">
       <c r="A83" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>36</v>
@@ -5802,7 +5803,7 @@
         <v>23</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="16"/>
@@ -5839,16 +5840,16 @@
     </row>
     <row r="84" spans="1:27">
       <c r="A84" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="16"/>
@@ -5887,16 +5888,16 @@
     </row>
     <row r="85" spans="1:27">
       <c r="A85" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="16"/>
@@ -5931,7 +5932,7 @@
     </row>
     <row r="86" spans="1:27">
       <c r="A86" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>56</v>
@@ -5940,7 +5941,7 @@
         <v>23</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="16"/>
@@ -5979,16 +5980,16 @@
     </row>
     <row r="87" spans="1:27">
       <c r="A87" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="16"/>
@@ -6025,16 +6026,16 @@
     </row>
     <row r="88" spans="1:27">
       <c r="A88" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C88" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="16"/>
@@ -6071,7 +6072,7 @@
     </row>
     <row r="89" spans="1:27">
       <c r="A89" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>25</v>
@@ -6080,7 +6081,7 @@
         <v>23</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="16"/>
@@ -6115,7 +6116,7 @@
     </row>
     <row r="90" spans="1:27">
       <c r="A90" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>38</v>
@@ -6124,7 +6125,7 @@
         <v>23</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="16"/>
@@ -6163,7 +6164,7 @@
     </row>
     <row r="91" spans="1:27">
       <c r="A91" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>93</v>
@@ -6172,7 +6173,7 @@
         <v>23</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="16"/>
@@ -6209,7 +6210,7 @@
     </row>
     <row r="92" spans="1:27">
       <c r="A92" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>25</v>
@@ -6218,7 +6219,7 @@
         <v>23</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="16"/>
@@ -6255,7 +6256,7 @@
     </row>
     <row r="93" spans="1:27">
       <c r="A93" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>68</v>
@@ -6264,7 +6265,7 @@
         <v>23</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E93" s="9"/>
       <c r="F93" s="16"/>
@@ -6305,7 +6306,7 @@
     </row>
     <row r="94" spans="1:27">
       <c r="A94" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>28</v>
@@ -6314,7 +6315,7 @@
         <v>23</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E94" s="9"/>
       <c r="F94" s="16"/>
@@ -6349,16 +6350,16 @@
     </row>
     <row r="95" spans="1:27">
       <c r="A95" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="16"/>
@@ -6393,16 +6394,16 @@
     </row>
     <row r="96" spans="1:27">
       <c r="A96" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E96" s="9"/>
       <c r="F96" s="16"/>
@@ -6439,7 +6440,7 @@
     </row>
     <row r="97" spans="1:27">
       <c r="A97" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>46</v>
@@ -6448,7 +6449,7 @@
         <v>23</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E97" s="9"/>
       <c r="F97" s="16"/>
@@ -6485,7 +6486,7 @@
     </row>
     <row r="98" spans="1:27">
       <c r="A98" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>72</v>
@@ -6494,7 +6495,7 @@
         <v>23</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="16"/>
@@ -6529,16 +6530,16 @@
     </row>
     <row r="99" spans="1:27">
       <c r="A99" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="E99" s="9"/>
       <c r="F99" s="16"/>
@@ -6577,7 +6578,7 @@
     </row>
     <row r="100" spans="1:27">
       <c r="A100" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>42</v>
@@ -6586,7 +6587,7 @@
         <v>23</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E100" s="9"/>
       <c r="F100" s="16"/>
@@ -6623,16 +6624,16 @@
     </row>
     <row r="101" spans="1:27">
       <c r="A101" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="16"/>
@@ -6671,16 +6672,16 @@
     </row>
     <row r="102" spans="1:27">
       <c r="A102" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="16"/>
@@ -6719,7 +6720,7 @@
     </row>
     <row r="103" spans="1:27">
       <c r="A103" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>25</v>
@@ -6728,7 +6729,7 @@
         <v>23</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E103" s="9"/>
       <c r="F103" s="16"/>
@@ -6763,16 +6764,16 @@
     </row>
     <row r="104" spans="1:27">
       <c r="A104" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="E104" s="9"/>
       <c r="F104" s="16"/>
@@ -6813,7 +6814,7 @@
     </row>
     <row r="105" spans="1:27">
       <c r="A105" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>28</v>
@@ -6822,7 +6823,7 @@
         <v>23</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E105" s="9"/>
       <c r="F105" s="16"/>
@@ -6857,7 +6858,7 @@
     </row>
     <row r="106" spans="1:27">
       <c r="A106" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>42</v>
@@ -6866,7 +6867,7 @@
         <v>23</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E106" s="9"/>
       <c r="F106" s="16"/>
@@ -6905,16 +6906,16 @@
     </row>
     <row r="107" spans="1:27">
       <c r="A107" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="E107" s="9"/>
       <c r="F107" s="16"/>
@@ -6953,16 +6954,16 @@
     </row>
     <row r="108" spans="1:27">
       <c r="A108" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>143</v>
+        <v>379</v>
       </c>
       <c r="C108" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E108" s="9"/>
       <c r="F108" s="16"/>
@@ -7001,7 +7002,7 @@
     </row>
     <row r="109" spans="1:27">
       <c r="A109" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>42</v>
@@ -7010,7 +7011,7 @@
         <v>23</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E109" s="9"/>
       <c r="F109" s="16"/>
@@ -7049,16 +7050,16 @@
     </row>
     <row r="110" spans="1:27" s="32" customFormat="1">
       <c r="A110" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="B110" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="C110" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D110" s="26" t="s">
         <v>273</v>
-      </c>
-      <c r="B110" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="C110" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D110" s="26" t="s">
-        <v>275</v>
       </c>
       <c r="E110" s="27"/>
       <c r="F110" s="28"/>
@@ -7074,7 +7075,7 @@
         <v>2000</v>
       </c>
       <c r="M110" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N110" s="31"/>
       <c r="O110" s="31"/>
@@ -7093,7 +7094,7 @@
     </row>
     <row r="111" spans="1:27" s="32" customFormat="1">
       <c r="A111" s="25" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B111" s="26" t="s">
         <v>46</v>
@@ -7102,7 +7103,7 @@
         <v>23</v>
       </c>
       <c r="D111" s="26" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E111" s="27"/>
       <c r="F111" s="28"/>
@@ -7118,7 +7119,7 @@
         <v>1500</v>
       </c>
       <c r="M111" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N111" s="31"/>
       <c r="O111" s="31"/>
@@ -7137,16 +7138,16 @@
     </row>
     <row r="112" spans="1:27" s="32" customFormat="1">
       <c r="A112" s="25" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C112" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D112" s="26" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E112" s="27"/>
       <c r="F112" s="28"/>
@@ -7162,7 +7163,7 @@
         <v>500</v>
       </c>
       <c r="M112" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N112" s="31"/>
       <c r="O112" s="31"/>
@@ -7181,7 +7182,7 @@
     </row>
     <row r="113" spans="1:27" s="32" customFormat="1">
       <c r="A113" s="25" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B113" s="26" t="s">
         <v>28</v>
@@ -7190,7 +7191,7 @@
         <v>23</v>
       </c>
       <c r="D113" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E113" s="27"/>
       <c r="F113" s="28"/>
@@ -7206,7 +7207,7 @@
         <v>2400</v>
       </c>
       <c r="M113" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N113" s="31"/>
       <c r="O113" s="31"/>
@@ -7225,7 +7226,7 @@
     </row>
     <row r="114" spans="1:27" s="32" customFormat="1">
       <c r="A114" s="25" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B114" s="26" t="s">
         <v>25</v>
@@ -7234,7 +7235,7 @@
         <v>23</v>
       </c>
       <c r="D114" s="26" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E114" s="27"/>
       <c r="F114" s="28"/>
@@ -7250,7 +7251,7 @@
         <v>800</v>
       </c>
       <c r="M114" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N114" s="31"/>
       <c r="O114" s="31"/>
@@ -7269,16 +7270,16 @@
     </row>
     <row r="115" spans="1:27" s="32" customFormat="1">
       <c r="A115" s="25" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B115" s="26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C115" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D115" s="26" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E115" s="27"/>
       <c r="F115" s="28"/>
@@ -7294,7 +7295,7 @@
         <v>1500</v>
       </c>
       <c r="M115" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N115" s="31"/>
       <c r="O115" s="31"/>
@@ -7313,16 +7314,16 @@
     </row>
     <row r="116" spans="1:27" s="32" customFormat="1">
       <c r="A116" s="25" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B116" s="26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C116" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D116" s="26" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E116" s="27"/>
       <c r="F116" s="28"/>
@@ -7338,7 +7339,7 @@
         <v>2500</v>
       </c>
       <c r="M116" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N116" s="31"/>
       <c r="O116" s="31"/>
@@ -7357,16 +7358,16 @@
     </row>
     <row r="117" spans="1:27" s="32" customFormat="1">
       <c r="A117" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B117" s="26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C117" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D117" s="26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E117" s="27"/>
       <c r="F117" s="28"/>
@@ -7382,7 +7383,7 @@
         <v>2800</v>
       </c>
       <c r="M117" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N117" s="31"/>
       <c r="O117" s="31"/>
@@ -7401,16 +7402,16 @@
     </row>
     <row r="118" spans="1:27" s="32" customFormat="1">
       <c r="A118" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="B118" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="C118" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D118" s="26" t="s">
         <v>284</v>
-      </c>
-      <c r="B118" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="C118" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D118" s="26" t="s">
-        <v>286</v>
       </c>
       <c r="E118" s="27"/>
       <c r="F118" s="28"/>
@@ -7426,7 +7427,7 @@
         <v>1851</v>
       </c>
       <c r="M118" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N118" s="31"/>
       <c r="O118" s="31"/>
@@ -7445,16 +7446,16 @@
     </row>
     <row r="119" spans="1:27" s="32" customFormat="1">
       <c r="A119" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="B119" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="C119" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D119" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="B119" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="C119" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D119" s="26" t="s">
-        <v>289</v>
       </c>
       <c r="E119" s="27"/>
       <c r="F119" s="28"/>
@@ -7470,7 +7471,7 @@
         <v>1500</v>
       </c>
       <c r="M119" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N119" s="31"/>
       <c r="O119" s="31"/>
@@ -7489,16 +7490,16 @@
     </row>
     <row r="120" spans="1:27" s="32" customFormat="1">
       <c r="A120" s="25" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B120" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C120" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D120" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E120" s="27"/>
       <c r="F120" s="28"/>
@@ -7514,7 +7515,7 @@
         <v>1500</v>
       </c>
       <c r="M120" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N120" s="31"/>
       <c r="O120" s="31"/>
@@ -7533,7 +7534,7 @@
     </row>
     <row r="121" spans="1:27" s="32" customFormat="1">
       <c r="A121" s="25" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B121" s="26" t="s">
         <v>72</v>
@@ -7542,7 +7543,7 @@
         <v>23</v>
       </c>
       <c r="D121" s="26" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E121" s="27"/>
       <c r="F121" s="28"/>
@@ -7558,7 +7559,7 @@
         <v>2750</v>
       </c>
       <c r="M121" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N121" s="31"/>
       <c r="O121" s="31"/>
@@ -7577,7 +7578,7 @@
     </row>
     <row r="122" spans="1:27" s="32" customFormat="1">
       <c r="A122" s="25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B122" s="26" t="s">
         <v>42</v>
@@ -7586,7 +7587,7 @@
         <v>23</v>
       </c>
       <c r="D122" s="26" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E122" s="27"/>
       <c r="F122" s="28"/>
@@ -7602,7 +7603,7 @@
         <v>10000</v>
       </c>
       <c r="M122" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N122" s="31"/>
       <c r="O122" s="31"/>
@@ -7621,16 +7622,16 @@
     </row>
     <row r="123" spans="1:27" s="32" customFormat="1">
       <c r="A123" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B123" s="26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C123" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D123" s="26" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E123" s="27"/>
       <c r="F123" s="28"/>
@@ -7646,7 +7647,7 @@
         <v>1800</v>
       </c>
       <c r="M123" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N123" s="31"/>
       <c r="O123" s="31"/>
@@ -7665,7 +7666,7 @@
     </row>
     <row r="124" spans="1:27" s="32" customFormat="1">
       <c r="A124" s="25" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B124" s="26" t="s">
         <v>28</v>
@@ -7674,7 +7675,7 @@
         <v>23</v>
       </c>
       <c r="D124" s="26" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E124" s="27"/>
       <c r="F124" s="28"/>
@@ -7690,7 +7691,7 @@
         <v>20250</v>
       </c>
       <c r="M124" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N124" s="31"/>
       <c r="O124" s="31"/>
@@ -7709,7 +7710,7 @@
     </row>
     <row r="125" spans="1:27" s="32" customFormat="1">
       <c r="A125" s="25" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B125" s="26" t="s">
         <v>75</v>
@@ -7718,7 +7719,7 @@
         <v>23</v>
       </c>
       <c r="D125" s="26" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E125" s="27"/>
       <c r="F125" s="28"/>
@@ -7734,7 +7735,7 @@
         <v>10000</v>
       </c>
       <c r="M125" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N125" s="31"/>
       <c r="O125" s="31"/>
@@ -7753,7 +7754,7 @@
     </row>
     <row r="126" spans="1:27" s="32" customFormat="1">
       <c r="A126" s="25" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B126" s="26" t="s">
         <v>38</v>
@@ -7762,7 +7763,7 @@
         <v>23</v>
       </c>
       <c r="D126" s="26" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E126" s="27"/>
       <c r="F126" s="28"/>
@@ -7778,7 +7779,7 @@
         <v>2100</v>
       </c>
       <c r="M126" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N126" s="31"/>
       <c r="O126" s="31"/>
@@ -7797,16 +7798,16 @@
     </row>
     <row r="127" spans="1:27" s="32" customFormat="1">
       <c r="A127" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="B127" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="C127" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127" s="26" t="s">
         <v>297</v>
-      </c>
-      <c r="B127" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="C127" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D127" s="26" t="s">
-        <v>299</v>
       </c>
       <c r="E127" s="27"/>
       <c r="F127" s="28"/>
@@ -7822,7 +7823,7 @@
         <v>1500</v>
       </c>
       <c r="M127" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N127" s="31"/>
       <c r="O127" s="31"/>
@@ -7841,16 +7842,16 @@
     </row>
     <row r="128" spans="1:27" s="32" customFormat="1">
       <c r="A128" s="25" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B128" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C128" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D128" s="26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E128" s="27"/>
       <c r="F128" s="28"/>
@@ -7866,7 +7867,7 @@
         <v>16919</v>
       </c>
       <c r="M128" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N128" s="31"/>
       <c r="O128" s="31"/>
@@ -7885,7 +7886,7 @@
     </row>
     <row r="129" spans="1:27" s="32" customFormat="1">
       <c r="A129" s="25" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B129" s="26" t="s">
         <v>25</v>
@@ -7894,7 +7895,7 @@
         <v>23</v>
       </c>
       <c r="D129" s="26" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E129" s="27"/>
       <c r="F129" s="28"/>
@@ -7910,7 +7911,7 @@
         <v>3000</v>
       </c>
       <c r="M129" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N129" s="31"/>
       <c r="O129" s="31"/>
@@ -7929,16 +7930,16 @@
     </row>
     <row r="130" spans="1:27" s="32" customFormat="1">
       <c r="A130" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="B130" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="C130" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D130" s="26" t="s">
         <v>304</v>
-      </c>
-      <c r="B130" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="C130" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D130" s="26" t="s">
-        <v>306</v>
       </c>
       <c r="E130" s="27"/>
       <c r="F130" s="28"/>
@@ -7954,7 +7955,7 @@
         <v>1500</v>
       </c>
       <c r="M130" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N130" s="31"/>
       <c r="O130" s="31"/>
@@ -7973,16 +7974,16 @@
     </row>
     <row r="131" spans="1:27" s="32" customFormat="1">
       <c r="A131" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="B131" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="C131" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D131" s="26" t="s">
         <v>307</v>
-      </c>
-      <c r="B131" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="C131" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D131" s="26" t="s">
-        <v>309</v>
       </c>
       <c r="E131" s="27"/>
       <c r="F131" s="28"/>
@@ -7998,7 +7999,7 @@
         <v>2000</v>
       </c>
       <c r="M131" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N131" s="31"/>
       <c r="O131" s="31"/>
@@ -8017,16 +8018,16 @@
     </row>
     <row r="132" spans="1:27" s="32" customFormat="1">
       <c r="A132" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="B132" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="C132" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D132" s="26" t="s">
         <v>310</v>
-      </c>
-      <c r="B132" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="C132" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D132" s="26" t="s">
-        <v>312</v>
       </c>
       <c r="E132" s="27"/>
       <c r="F132" s="28"/>
@@ -8042,7 +8043,7 @@
         <v>2400</v>
       </c>
       <c r="M132" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N132" s="31"/>
       <c r="O132" s="31"/>
@@ -8061,16 +8062,16 @@
     </row>
     <row r="133" spans="1:27" s="32" customFormat="1">
       <c r="A133" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="B133" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="C133" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D133" s="26" t="s">
         <v>313</v>
-      </c>
-      <c r="B133" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="C133" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D133" s="26" t="s">
-        <v>315</v>
       </c>
       <c r="E133" s="27"/>
       <c r="F133" s="28"/>
@@ -8086,7 +8087,7 @@
         <v>1000</v>
       </c>
       <c r="M133" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N133" s="31"/>
       <c r="O133" s="31"/>
@@ -8105,7 +8106,7 @@
     </row>
     <row r="134" spans="1:27" s="32" customFormat="1">
       <c r="A134" s="25" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B134" s="26" t="s">
         <v>46</v>
@@ -8114,7 +8115,7 @@
         <v>23</v>
       </c>
       <c r="D134" s="26" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E134" s="27"/>
       <c r="F134" s="28"/>
@@ -8130,7 +8131,7 @@
         <v>5500</v>
       </c>
       <c r="M134" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N134" s="31"/>
       <c r="O134" s="31"/>
@@ -8149,16 +8150,16 @@
     </row>
     <row r="135" spans="1:27" s="32" customFormat="1">
       <c r="A135" s="25" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B135" s="26" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C135" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D135" s="26" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E135" s="27"/>
       <c r="F135" s="28"/>
@@ -8174,7 +8175,7 @@
         <v>2106</v>
       </c>
       <c r="M135" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N135" s="31"/>
       <c r="O135" s="31"/>
@@ -8193,16 +8194,16 @@
     </row>
     <row r="136" spans="1:27" s="32" customFormat="1">
       <c r="A136" s="25" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B136" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C136" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D136" s="26" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E136" s="27"/>
       <c r="F136" s="28"/>
@@ -8218,7 +8219,7 @@
         <v>1500</v>
       </c>
       <c r="M136" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N136" s="31"/>
       <c r="O136" s="31"/>
@@ -8237,16 +8238,16 @@
     </row>
     <row r="137" spans="1:27" s="32" customFormat="1">
       <c r="A137" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="B137" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="C137" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D137" s="26" t="s">
         <v>322</v>
-      </c>
-      <c r="B137" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="C137" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D137" s="26" t="s">
-        <v>324</v>
       </c>
       <c r="E137" s="27"/>
       <c r="F137" s="28"/>
@@ -8262,7 +8263,7 @@
         <v>1500</v>
       </c>
       <c r="M137" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N137" s="31"/>
       <c r="O137" s="31"/>
@@ -8281,16 +8282,16 @@
     </row>
     <row r="138" spans="1:27" s="32" customFormat="1">
       <c r="A138" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="B138" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="C138" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D138" s="26" t="s">
         <v>325</v>
-      </c>
-      <c r="B138" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="C138" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D138" s="26" t="s">
-        <v>327</v>
       </c>
       <c r="E138" s="27"/>
       <c r="F138" s="28"/>
@@ -8306,7 +8307,7 @@
         <v>2000</v>
       </c>
       <c r="M138" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N138" s="31"/>
       <c r="O138" s="31"/>
@@ -8325,7 +8326,7 @@
     </row>
     <row r="139" spans="1:27" s="32" customFormat="1">
       <c r="A139" s="25" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B139" s="26" t="s">
         <v>79</v>
@@ -8334,7 +8335,7 @@
         <v>23</v>
       </c>
       <c r="D139" s="26" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E139" s="27"/>
       <c r="F139" s="28"/>
@@ -8350,7 +8351,7 @@
         <v>1000</v>
       </c>
       <c r="M139" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N139" s="31"/>
       <c r="O139" s="31"/>
@@ -8369,7 +8370,7 @@
     </row>
     <row r="140" spans="1:27" s="32" customFormat="1">
       <c r="A140" s="25" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B140" s="26" t="s">
         <v>36</v>
@@ -8378,7 +8379,7 @@
         <v>23</v>
       </c>
       <c r="D140" s="26" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E140" s="27"/>
       <c r="F140" s="28"/>
@@ -8394,7 +8395,7 @@
         <v>3200</v>
       </c>
       <c r="M140" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N140" s="31"/>
       <c r="O140" s="31"/>
@@ -8413,7 +8414,7 @@
     </row>
     <row r="141" spans="1:27" s="32" customFormat="1">
       <c r="A141" s="25" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B141" s="26" t="s">
         <v>36</v>
@@ -8422,7 +8423,7 @@
         <v>23</v>
       </c>
       <c r="D141" s="26" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E141" s="27"/>
       <c r="F141" s="28"/>
@@ -8438,7 +8439,7 @@
         <v>38000</v>
       </c>
       <c r="M141" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N141" s="31"/>
       <c r="O141" s="31"/>
@@ -8457,7 +8458,7 @@
     </row>
     <row r="142" spans="1:27" s="32" customFormat="1">
       <c r="A142" s="25" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B142" s="26" t="s">
         <v>79</v>
@@ -8466,7 +8467,7 @@
         <v>23</v>
       </c>
       <c r="D142" s="26" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E142" s="27"/>
       <c r="F142" s="28"/>
@@ -8482,7 +8483,7 @@
         <v>4320</v>
       </c>
       <c r="M142" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N142" s="31"/>
       <c r="O142" s="31"/>
@@ -8501,7 +8502,7 @@
     </row>
     <row r="143" spans="1:27" s="32" customFormat="1">
       <c r="A143" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B143" s="26" t="s">
         <v>36</v>
@@ -8510,7 +8511,7 @@
         <v>23</v>
       </c>
       <c r="D143" s="26" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E143" s="27"/>
       <c r="F143" s="28"/>
@@ -8526,7 +8527,7 @@
         <v>5840</v>
       </c>
       <c r="M143" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N143" s="31"/>
       <c r="O143" s="31"/>
@@ -8545,7 +8546,7 @@
     </row>
     <row r="144" spans="1:27" s="32" customFormat="1">
       <c r="A144" s="25" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B144" s="26" t="s">
         <v>28</v>
@@ -8554,7 +8555,7 @@
         <v>23</v>
       </c>
       <c r="D144" s="26" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E144" s="27"/>
       <c r="F144" s="28"/>
@@ -8570,7 +8571,7 @@
         <v>8040</v>
       </c>
       <c r="M144" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N144" s="31"/>
       <c r="O144" s="31"/>
@@ -8589,16 +8590,16 @@
     </row>
     <row r="145" spans="1:27" s="32" customFormat="1">
       <c r="A145" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="B145" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="C145" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D145" s="26" t="s">
         <v>338</v>
-      </c>
-      <c r="B145" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="C145" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D145" s="26" t="s">
-        <v>340</v>
       </c>
       <c r="E145" s="27"/>
       <c r="F145" s="28"/>
@@ -8614,7 +8615,7 @@
         <v>1000</v>
       </c>
       <c r="M145" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N145" s="31"/>
       <c r="O145" s="31"/>
@@ -8633,16 +8634,16 @@
     </row>
     <row r="146" spans="1:27" s="32" customFormat="1">
       <c r="A146" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="B146" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="C146" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D146" s="26" t="s">
         <v>341</v>
-      </c>
-      <c r="B146" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="C146" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D146" s="26" t="s">
-        <v>343</v>
       </c>
       <c r="E146" s="27"/>
       <c r="F146" s="28"/>
@@ -8658,7 +8659,7 @@
         <v>1650</v>
       </c>
       <c r="M146" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N146" s="31"/>
       <c r="O146" s="31"/>
@@ -8677,7 +8678,7 @@
     </row>
     <row r="147" spans="1:27" s="32" customFormat="1">
       <c r="A147" s="25" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B147" s="26" t="s">
         <v>28</v>
@@ -8686,7 +8687,7 @@
         <v>23</v>
       </c>
       <c r="D147" s="26" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E147" s="27"/>
       <c r="F147" s="28"/>
@@ -8702,7 +8703,7 @@
         <v>7500</v>
       </c>
       <c r="M147" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N147" s="31"/>
       <c r="O147" s="31"/>
@@ -8721,7 +8722,7 @@
     </row>
     <row r="148" spans="1:27" s="32" customFormat="1">
       <c r="A148" s="25" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B148" s="26" t="s">
         <v>25</v>
@@ -8730,7 +8731,7 @@
         <v>23</v>
       </c>
       <c r="D148" s="26" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E148" s="27"/>
       <c r="F148" s="28"/>
@@ -8746,7 +8747,7 @@
         <v>500</v>
       </c>
       <c r="M148" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N148" s="31"/>
       <c r="O148" s="31"/>
@@ -8765,7 +8766,7 @@
     </row>
     <row r="149" spans="1:27" s="32" customFormat="1">
       <c r="A149" s="25" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B149" s="26" t="s">
         <v>28</v>
@@ -8774,7 +8775,7 @@
         <v>23</v>
       </c>
       <c r="D149" s="26" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E149" s="27"/>
       <c r="F149" s="28"/>
@@ -8790,7 +8791,7 @@
         <v>1200</v>
       </c>
       <c r="M149" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N149" s="31"/>
       <c r="O149" s="31"/>
@@ -8809,16 +8810,16 @@
     </row>
     <row r="150" spans="1:27" s="32" customFormat="1">
       <c r="A150" s="25" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B150" s="26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C150" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D150" s="26" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E150" s="27"/>
       <c r="F150" s="28"/>
@@ -8834,7 +8835,7 @@
         <v>700</v>
       </c>
       <c r="M150" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N150" s="31"/>
       <c r="O150" s="31"/>
@@ -8853,7 +8854,7 @@
     </row>
     <row r="151" spans="1:27" s="32" customFormat="1">
       <c r="A151" s="25" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B151" s="26" t="s">
         <v>36</v>
@@ -8878,7 +8879,7 @@
         <v>4000</v>
       </c>
       <c r="M151" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N151" s="31"/>
       <c r="O151" s="31"/>
@@ -8897,7 +8898,7 @@
     </row>
     <row r="152" spans="1:27" s="32" customFormat="1">
       <c r="A152" s="25" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B152" s="26" t="s">
         <v>36</v>
@@ -8906,7 +8907,7 @@
         <v>23</v>
       </c>
       <c r="D152" s="26" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E152" s="27"/>
       <c r="F152" s="28"/>
@@ -8922,7 +8923,7 @@
         <v>2000</v>
       </c>
       <c r="M152" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N152" s="31"/>
       <c r="O152" s="31"/>
@@ -8941,7 +8942,7 @@
     </row>
     <row r="153" spans="1:27" s="32" customFormat="1">
       <c r="A153" s="25" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B153" s="26" t="s">
         <v>25</v>
@@ -8950,7 +8951,7 @@
         <v>23</v>
       </c>
       <c r="D153" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E153" s="27"/>
       <c r="F153" s="28"/>
@@ -8966,7 +8967,7 @@
         <v>10000</v>
       </c>
       <c r="M153" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N153" s="31"/>
       <c r="O153" s="31"/>
@@ -8985,7 +8986,7 @@
     </row>
     <row r="154" spans="1:27" s="32" customFormat="1">
       <c r="A154" s="25" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B154" s="26" t="s">
         <v>25</v>
@@ -8994,7 +8995,7 @@
         <v>23</v>
       </c>
       <c r="D154" s="26" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E154" s="27"/>
       <c r="F154" s="28"/>
@@ -9010,7 +9011,7 @@
         <v>3000</v>
       </c>
       <c r="M154" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N154" s="31"/>
       <c r="O154" s="31"/>
@@ -9029,7 +9030,7 @@
     </row>
     <row r="155" spans="1:27" s="32" customFormat="1">
       <c r="A155" s="25" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B155" s="26" t="s">
         <v>25</v>
@@ -9038,7 +9039,7 @@
         <v>23</v>
       </c>
       <c r="D155" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E155" s="27"/>
       <c r="F155" s="28"/>
@@ -9054,7 +9055,7 @@
         <v>1000</v>
       </c>
       <c r="M155" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N155" s="31"/>
       <c r="O155" s="31"/>
@@ -9073,7 +9074,7 @@
     </row>
     <row r="156" spans="1:27" s="32" customFormat="1">
       <c r="A156" s="25" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B156" s="26" t="s">
         <v>25</v>
@@ -9082,7 +9083,7 @@
         <v>23</v>
       </c>
       <c r="D156" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E156" s="27"/>
       <c r="F156" s="28"/>
@@ -9098,7 +9099,7 @@
         <v>8000</v>
       </c>
       <c r="M156" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N156" s="31"/>
       <c r="O156" s="31"/>
@@ -9117,7 +9118,7 @@
     </row>
     <row r="157" spans="1:27" s="32" customFormat="1">
       <c r="A157" s="25" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B157" s="26" t="s">
         <v>25</v>
@@ -9126,7 +9127,7 @@
         <v>23</v>
       </c>
       <c r="D157" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E157" s="27"/>
       <c r="F157" s="28"/>
@@ -9142,7 +9143,7 @@
         <v>3000</v>
       </c>
       <c r="M157" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N157" s="31"/>
       <c r="O157" s="31"/>
@@ -9161,16 +9162,16 @@
     </row>
     <row r="158" spans="1:27" s="32" customFormat="1">
       <c r="A158" s="25" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B158" s="26" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C158" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D158" s="26" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E158" s="27"/>
       <c r="F158" s="28"/>
@@ -9186,7 +9187,7 @@
         <v>1000</v>
       </c>
       <c r="M158" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N158" s="31"/>
       <c r="O158" s="31"/>
@@ -9205,7 +9206,7 @@
     </row>
     <row r="159" spans="1:27" s="32" customFormat="1">
       <c r="A159" s="25" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B159" s="26" t="s">
         <v>25</v>
@@ -9214,7 +9215,7 @@
         <v>23</v>
       </c>
       <c r="D159" s="26" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E159" s="27"/>
       <c r="F159" s="28"/>
@@ -9230,7 +9231,7 @@
         <v>4500</v>
       </c>
       <c r="M159" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N159" s="31"/>
       <c r="O159" s="31"/>
@@ -9249,7 +9250,7 @@
     </row>
     <row r="160" spans="1:27" s="32" customFormat="1">
       <c r="A160" s="25" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B160" s="26" t="s">
         <v>25</v>
@@ -9258,7 +9259,7 @@
         <v>23</v>
       </c>
       <c r="D160" s="26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E160" s="27"/>
       <c r="F160" s="28"/>
@@ -9274,7 +9275,7 @@
         <v>500</v>
       </c>
       <c r="M160" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N160" s="31"/>
       <c r="O160" s="31"/>
@@ -9343,7 +9344,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B2" s="21">
         <v>2016</v>
@@ -9366,7 +9367,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B3" s="21">
         <v>2016</v>
@@ -9389,7 +9390,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B4" s="21">
         <v>2016</v>
@@ -9412,7 +9413,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B5" s="21">
         <v>2016</v>
@@ -9435,7 +9436,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B6" s="21">
         <v>2016</v>
@@ -9452,7 +9453,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B7" s="21">
         <v>2016</v>
@@ -9475,7 +9476,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B8" s="21">
         <v>2016</v>
@@ -9492,7 +9493,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B9" s="21">
         <v>2016</v>
@@ -9509,7 +9510,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B10" s="21">
         <v>2016</v>
@@ -9526,7 +9527,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B11" s="21">
         <v>2016</v>

--- a/data/0. old data/0. raw/2016/companies/allergan.xlsx
+++ b/data/0. old data/0. raw/2016/companies/allergan.xlsx
@@ -124,9 +124,6 @@
     <t>Sursee</t>
   </si>
   <si>
-    <t>Uro Sursee, Buchenstrasse 4,6210 Sursee</t>
-  </si>
-  <si>
     <t>Bellinzona</t>
   </si>
   <si>
@@ -1469,6 +1466,9 @@
   </si>
   <si>
     <t>Horgen</t>
+  </si>
+  <si>
+    <t>Urologische Praxis im Buchenhof, Buchenstrasse 4,6210 Sursee</t>
   </si>
 </sst>
 </file>
@@ -1992,8 +1992,8 @@
   <dimension ref="A1:AA160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A108" sqref="A108"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>22</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>25</v>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>25</v>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>28</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="6" spans="1:27" ht="28" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>30</v>
@@ -2302,7 +2302,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>32</v>
@@ -2311,7 +2311,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>379</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="16"/>
@@ -2346,16 +2346,16 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="16"/>
@@ -2392,16 +2392,16 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="16"/>
@@ -2436,16 +2436,16 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="16"/>
@@ -2480,16 +2480,16 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="16"/>
@@ -2528,16 +2528,16 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="16"/>
@@ -2578,16 +2578,16 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="16"/>
@@ -2624,16 +2624,16 @@
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="16"/>
@@ -2668,16 +2668,16 @@
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="16"/>
@@ -2712,16 +2712,16 @@
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="16"/>
@@ -2756,16 +2756,16 @@
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="16"/>
@@ -2804,16 +2804,16 @@
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="16"/>
@@ -2850,16 +2850,16 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="16"/>
@@ -2896,16 +2896,16 @@
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="16"/>
@@ -2944,16 +2944,16 @@
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="16"/>
@@ -2988,16 +2988,16 @@
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="16"/>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>25</v>
@@ -3043,7 +3043,7 @@
         <v>23</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="16"/>
@@ -3080,16 +3080,16 @@
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="16"/>
@@ -3124,16 +3124,16 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="16"/>
@@ -3170,16 +3170,16 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="16"/>
@@ -3218,16 +3218,16 @@
     </row>
     <row r="27" spans="1:27">
       <c r="A27" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="16"/>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="28" spans="1:27">
       <c r="A28" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>25</v>
@@ -3271,7 +3271,7 @@
         <v>23</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="16"/>
@@ -3306,16 +3306,16 @@
     </row>
     <row r="29" spans="1:27">
       <c r="A29" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="16"/>
@@ -3352,16 +3352,16 @@
     </row>
     <row r="30" spans="1:27">
       <c r="A30" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="16"/>
@@ -3400,7 +3400,7 @@
     </row>
     <row r="31" spans="1:27">
       <c r="A31" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>25</v>
@@ -3409,7 +3409,7 @@
         <v>23</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="16"/>
@@ -3448,7 +3448,7 @@
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>25</v>
@@ -3457,7 +3457,7 @@
         <v>23</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="16"/>
@@ -3496,16 +3496,16 @@
     </row>
     <row r="33" spans="1:27">
       <c r="A33" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="16"/>
@@ -3540,16 +3540,16 @@
     </row>
     <row r="34" spans="1:27">
       <c r="A34" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="16"/>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="35" spans="1:27">
       <c r="A35" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>25</v>
@@ -3593,7 +3593,7 @@
         <v>23</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="16"/>
@@ -3632,16 +3632,16 @@
     </row>
     <row r="36" spans="1:27">
       <c r="A36" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="16"/>
@@ -3676,16 +3676,16 @@
     </row>
     <row r="37" spans="1:27">
       <c r="A37" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="16"/>
@@ -3726,16 +3726,16 @@
     </row>
     <row r="38" spans="1:27">
       <c r="A38" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="16"/>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="39" spans="1:27">
       <c r="A39" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>25</v>
@@ -3781,7 +3781,7 @@
         <v>23</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="16"/>
@@ -3818,16 +3818,16 @@
     </row>
     <row r="40" spans="1:27">
       <c r="A40" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="16"/>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="41" spans="1:27">
       <c r="A41" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>25</v>
@@ -3871,7 +3871,7 @@
         <v>23</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="16"/>
@@ -3906,16 +3906,16 @@
     </row>
     <row r="42" spans="1:27">
       <c r="A42" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="16"/>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="43" spans="1:27">
       <c r="A43" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>32</v>
@@ -3961,7 +3961,7 @@
         <v>23</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="16"/>
@@ -3996,16 +3996,16 @@
     </row>
     <row r="44" spans="1:27">
       <c r="A44" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="16"/>
@@ -4044,16 +4044,16 @@
     </row>
     <row r="45" spans="1:27">
       <c r="A45" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="16"/>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="46" spans="1:27">
       <c r="A46" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>25</v>
@@ -4097,7 +4097,7 @@
         <v>23</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="16"/>
@@ -4136,16 +4136,16 @@
     </row>
     <row r="47" spans="1:27">
       <c r="A47" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="16"/>
@@ -4180,7 +4180,7 @@
     </row>
     <row r="48" spans="1:27">
       <c r="A48" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>28</v>
@@ -4189,7 +4189,7 @@
         <v>23</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="16"/>
@@ -4230,16 +4230,16 @@
     </row>
     <row r="49" spans="1:27">
       <c r="A49" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="16"/>
@@ -4278,16 +4278,16 @@
     </row>
     <row r="50" spans="1:27">
       <c r="A50" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="16"/>
@@ -4322,16 +4322,16 @@
     </row>
     <row r="51" spans="1:27">
       <c r="A51" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="16"/>
@@ -4368,16 +4368,16 @@
     </row>
     <row r="52" spans="1:27">
       <c r="A52" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="16"/>
@@ -4416,16 +4416,16 @@
     </row>
     <row r="53" spans="1:27">
       <c r="A53" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="16"/>
@@ -4462,16 +4462,16 @@
     </row>
     <row r="54" spans="1:27">
       <c r="A54" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="16"/>
@@ -4508,16 +4508,16 @@
     </row>
     <row r="55" spans="1:27">
       <c r="A55" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="16"/>
@@ -4552,16 +4552,16 @@
     </row>
     <row r="56" spans="1:27">
       <c r="A56" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="16"/>
@@ -4596,16 +4596,16 @@
     </row>
     <row r="57" spans="1:27">
       <c r="A57" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="16"/>
@@ -4644,16 +4644,16 @@
     </row>
     <row r="58" spans="1:27">
       <c r="A58" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="16"/>
@@ -4688,7 +4688,7 @@
     </row>
     <row r="59" spans="1:27">
       <c r="A59" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>25</v>
@@ -4697,7 +4697,7 @@
         <v>23</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="16"/>
@@ -4732,16 +4732,16 @@
     </row>
     <row r="60" spans="1:27">
       <c r="A60" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="16"/>
@@ -4778,7 +4778,7 @@
     </row>
     <row r="61" spans="1:27">
       <c r="A61" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>25</v>
@@ -4787,7 +4787,7 @@
         <v>23</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="16"/>
@@ -4824,7 +4824,7 @@
     </row>
     <row r="62" spans="1:27">
       <c r="A62" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>28</v>
@@ -4833,7 +4833,7 @@
         <v>23</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="16"/>
@@ -4868,16 +4868,16 @@
     </row>
     <row r="63" spans="1:27">
       <c r="A63" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="16"/>
@@ -4912,7 +4912,7 @@
     </row>
     <row r="64" spans="1:27">
       <c r="A64" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>25</v>
@@ -4921,7 +4921,7 @@
         <v>23</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="16"/>
@@ -4962,16 +4962,16 @@
     </row>
     <row r="65" spans="1:27">
       <c r="A65" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="16"/>
@@ -5010,16 +5010,16 @@
     </row>
     <row r="66" spans="1:27">
       <c r="A66" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="16"/>
@@ -5058,16 +5058,16 @@
     </row>
     <row r="67" spans="1:27">
       <c r="A67" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="16"/>
@@ -5104,7 +5104,7 @@
     </row>
     <row r="68" spans="1:27">
       <c r="A68" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>25</v>
@@ -5113,7 +5113,7 @@
         <v>23</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="16"/>
@@ -5150,16 +5150,16 @@
     </row>
     <row r="69" spans="1:27">
       <c r="A69" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="16"/>
@@ -5194,16 +5194,16 @@
     </row>
     <row r="70" spans="1:27">
       <c r="A70" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="16"/>
@@ -5238,16 +5238,16 @@
     </row>
     <row r="71" spans="1:27">
       <c r="A71" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="16"/>
@@ -5282,16 +5282,16 @@
     </row>
     <row r="72" spans="1:27">
       <c r="A72" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="16"/>
@@ -5326,16 +5326,16 @@
     </row>
     <row r="73" spans="1:27">
       <c r="A73" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="16"/>
@@ -5370,7 +5370,7 @@
     </row>
     <row r="74" spans="1:27">
       <c r="A74" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>25</v>
@@ -5379,7 +5379,7 @@
         <v>23</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="16"/>
@@ -5420,16 +5420,16 @@
     </row>
     <row r="75" spans="1:27">
       <c r="A75" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="16"/>
@@ -5464,7 +5464,7 @@
     </row>
     <row r="76" spans="1:27">
       <c r="A76" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>25</v>
@@ -5473,7 +5473,7 @@
         <v>23</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="16"/>
@@ -5512,7 +5512,7 @@
     </row>
     <row r="77" spans="1:27">
       <c r="A77" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>25</v>
@@ -5521,7 +5521,7 @@
         <v>23</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="16"/>
@@ -5558,7 +5558,7 @@
     </row>
     <row r="78" spans="1:27">
       <c r="A78" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>25</v>
@@ -5567,7 +5567,7 @@
         <v>23</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="16"/>
@@ -5608,16 +5608,16 @@
     </row>
     <row r="79" spans="1:27">
       <c r="A79" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="16"/>
@@ -5652,16 +5652,16 @@
     </row>
     <row r="80" spans="1:27">
       <c r="A80" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="16"/>
@@ -5696,7 +5696,7 @@
     </row>
     <row r="81" spans="1:27">
       <c r="A81" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>25</v>
@@ -5705,7 +5705,7 @@
         <v>23</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="16"/>
@@ -5746,16 +5746,16 @@
     </row>
     <row r="82" spans="1:27">
       <c r="A82" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="16"/>
@@ -5794,16 +5794,16 @@
     </row>
     <row r="83" spans="1:27">
       <c r="A83" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="16"/>
@@ -5840,16 +5840,16 @@
     </row>
     <row r="84" spans="1:27">
       <c r="A84" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="16"/>
@@ -5888,16 +5888,16 @@
     </row>
     <row r="85" spans="1:27">
       <c r="A85" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="16"/>
@@ -5932,16 +5932,16 @@
     </row>
     <row r="86" spans="1:27">
       <c r="A86" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="16"/>
@@ -5980,16 +5980,16 @@
     </row>
     <row r="87" spans="1:27">
       <c r="A87" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="16"/>
@@ -6026,16 +6026,16 @@
     </row>
     <row r="88" spans="1:27">
       <c r="A88" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C88" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="16"/>
@@ -6072,7 +6072,7 @@
     </row>
     <row r="89" spans="1:27">
       <c r="A89" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>25</v>
@@ -6081,7 +6081,7 @@
         <v>23</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="16"/>
@@ -6116,16 +6116,16 @@
     </row>
     <row r="90" spans="1:27">
       <c r="A90" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="16"/>
@@ -6164,16 +6164,16 @@
     </row>
     <row r="91" spans="1:27">
       <c r="A91" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C91" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="16"/>
@@ -6210,7 +6210,7 @@
     </row>
     <row r="92" spans="1:27">
       <c r="A92" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>25</v>
@@ -6219,7 +6219,7 @@
         <v>23</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="16"/>
@@ -6256,16 +6256,16 @@
     </row>
     <row r="93" spans="1:27">
       <c r="A93" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C93" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E93" s="9"/>
       <c r="F93" s="16"/>
@@ -6306,7 +6306,7 @@
     </row>
     <row r="94" spans="1:27">
       <c r="A94" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>28</v>
@@ -6315,7 +6315,7 @@
         <v>23</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E94" s="9"/>
       <c r="F94" s="16"/>
@@ -6350,16 +6350,16 @@
     </row>
     <row r="95" spans="1:27">
       <c r="A95" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="16"/>
@@ -6394,16 +6394,16 @@
     </row>
     <row r="96" spans="1:27">
       <c r="A96" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="E96" s="9"/>
       <c r="F96" s="16"/>
@@ -6440,16 +6440,16 @@
     </row>
     <row r="97" spans="1:27">
       <c r="A97" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C97" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E97" s="9"/>
       <c r="F97" s="16"/>
@@ -6486,16 +6486,16 @@
     </row>
     <row r="98" spans="1:27">
       <c r="A98" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C98" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="16"/>
@@ -6530,16 +6530,16 @@
     </row>
     <row r="99" spans="1:27">
       <c r="A99" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="E99" s="9"/>
       <c r="F99" s="16"/>
@@ -6578,16 +6578,16 @@
     </row>
     <row r="100" spans="1:27">
       <c r="A100" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C100" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E100" s="9"/>
       <c r="F100" s="16"/>
@@ -6624,16 +6624,16 @@
     </row>
     <row r="101" spans="1:27">
       <c r="A101" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="16"/>
@@ -6672,16 +6672,16 @@
     </row>
     <row r="102" spans="1:27">
       <c r="A102" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="16"/>
@@ -6720,7 +6720,7 @@
     </row>
     <row r="103" spans="1:27">
       <c r="A103" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>25</v>
@@ -6729,7 +6729,7 @@
         <v>23</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E103" s="9"/>
       <c r="F103" s="16"/>
@@ -6764,16 +6764,16 @@
     </row>
     <row r="104" spans="1:27">
       <c r="A104" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="E104" s="9"/>
       <c r="F104" s="16"/>
@@ -6814,7 +6814,7 @@
     </row>
     <row r="105" spans="1:27">
       <c r="A105" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>28</v>
@@ -6823,7 +6823,7 @@
         <v>23</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E105" s="9"/>
       <c r="F105" s="16"/>
@@ -6858,16 +6858,16 @@
     </row>
     <row r="106" spans="1:27">
       <c r="A106" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C106" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E106" s="9"/>
       <c r="F106" s="16"/>
@@ -6906,16 +6906,16 @@
     </row>
     <row r="107" spans="1:27">
       <c r="A107" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="E107" s="9"/>
       <c r="F107" s="16"/>
@@ -6954,16 +6954,16 @@
     </row>
     <row r="108" spans="1:27">
       <c r="A108" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C108" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E108" s="9"/>
       <c r="F108" s="16"/>
@@ -7002,16 +7002,16 @@
     </row>
     <row r="109" spans="1:27">
       <c r="A109" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C109" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E109" s="9"/>
       <c r="F109" s="16"/>
@@ -7050,16 +7050,16 @@
     </row>
     <row r="110" spans="1:27" s="32" customFormat="1">
       <c r="A110" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="B110" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="B110" s="26" t="s">
+      <c r="C110" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D110" s="26" t="s">
         <v>272</v>
-      </c>
-      <c r="C110" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D110" s="26" t="s">
-        <v>273</v>
       </c>
       <c r="E110" s="27"/>
       <c r="F110" s="28"/>
@@ -7075,7 +7075,7 @@
         <v>2000</v>
       </c>
       <c r="M110" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N110" s="31"/>
       <c r="O110" s="31"/>
@@ -7094,16 +7094,16 @@
     </row>
     <row r="111" spans="1:27" s="32" customFormat="1">
       <c r="A111" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="B111" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C111" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D111" s="26" t="s">
         <v>274</v>
-      </c>
-      <c r="B111" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C111" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D111" s="26" t="s">
-        <v>275</v>
       </c>
       <c r="E111" s="27"/>
       <c r="F111" s="28"/>
@@ -7119,7 +7119,7 @@
         <v>1500</v>
       </c>
       <c r="M111" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N111" s="31"/>
       <c r="O111" s="31"/>
@@ -7138,16 +7138,16 @@
     </row>
     <row r="112" spans="1:27" s="32" customFormat="1">
       <c r="A112" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C112" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D112" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E112" s="27"/>
       <c r="F112" s="28"/>
@@ -7163,7 +7163,7 @@
         <v>500</v>
       </c>
       <c r="M112" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N112" s="31"/>
       <c r="O112" s="31"/>
@@ -7182,7 +7182,7 @@
     </row>
     <row r="113" spans="1:27" s="32" customFormat="1">
       <c r="A113" s="25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B113" s="26" t="s">
         <v>28</v>
@@ -7191,7 +7191,7 @@
         <v>23</v>
       </c>
       <c r="D113" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E113" s="27"/>
       <c r="F113" s="28"/>
@@ -7207,7 +7207,7 @@
         <v>2400</v>
       </c>
       <c r="M113" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N113" s="31"/>
       <c r="O113" s="31"/>
@@ -7226,7 +7226,7 @@
     </row>
     <row r="114" spans="1:27" s="32" customFormat="1">
       <c r="A114" s="25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B114" s="26" t="s">
         <v>25</v>
@@ -7235,7 +7235,7 @@
         <v>23</v>
       </c>
       <c r="D114" s="26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E114" s="27"/>
       <c r="F114" s="28"/>
@@ -7251,7 +7251,7 @@
         <v>800</v>
       </c>
       <c r="M114" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N114" s="31"/>
       <c r="O114" s="31"/>
@@ -7270,16 +7270,16 @@
     </row>
     <row r="115" spans="1:27" s="32" customFormat="1">
       <c r="A115" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="B115" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="C115" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D115" s="26" t="s">
         <v>280</v>
-      </c>
-      <c r="B115" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="C115" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D115" s="26" t="s">
-        <v>281</v>
       </c>
       <c r="E115" s="27"/>
       <c r="F115" s="28"/>
@@ -7295,7 +7295,7 @@
         <v>1500</v>
       </c>
       <c r="M115" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N115" s="31"/>
       <c r="O115" s="31"/>
@@ -7314,16 +7314,16 @@
     </row>
     <row r="116" spans="1:27" s="32" customFormat="1">
       <c r="A116" s="25" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B116" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C116" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D116" s="26" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E116" s="27"/>
       <c r="F116" s="28"/>
@@ -7339,7 +7339,7 @@
         <v>2500</v>
       </c>
       <c r="M116" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N116" s="31"/>
       <c r="O116" s="31"/>
@@ -7358,16 +7358,16 @@
     </row>
     <row r="117" spans="1:27" s="32" customFormat="1">
       <c r="A117" s="25" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B117" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C117" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D117" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E117" s="27"/>
       <c r="F117" s="28"/>
@@ -7383,7 +7383,7 @@
         <v>2800</v>
       </c>
       <c r="M117" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N117" s="31"/>
       <c r="O117" s="31"/>
@@ -7402,16 +7402,16 @@
     </row>
     <row r="118" spans="1:27" s="32" customFormat="1">
       <c r="A118" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="B118" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="B118" s="26" t="s">
+      <c r="C118" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D118" s="26" t="s">
         <v>283</v>
-      </c>
-      <c r="C118" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D118" s="26" t="s">
-        <v>284</v>
       </c>
       <c r="E118" s="27"/>
       <c r="F118" s="28"/>
@@ -7427,7 +7427,7 @@
         <v>1851</v>
       </c>
       <c r="M118" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N118" s="31"/>
       <c r="O118" s="31"/>
@@ -7446,16 +7446,16 @@
     </row>
     <row r="119" spans="1:27" s="32" customFormat="1">
       <c r="A119" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="B119" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="B119" s="26" t="s">
+      <c r="C119" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D119" s="26" t="s">
         <v>286</v>
-      </c>
-      <c r="C119" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D119" s="26" t="s">
-        <v>287</v>
       </c>
       <c r="E119" s="27"/>
       <c r="F119" s="28"/>
@@ -7471,7 +7471,7 @@
         <v>1500</v>
       </c>
       <c r="M119" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N119" s="31"/>
       <c r="O119" s="31"/>
@@ -7490,16 +7490,16 @@
     </row>
     <row r="120" spans="1:27" s="32" customFormat="1">
       <c r="A120" s="25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B120" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C120" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D120" s="26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E120" s="27"/>
       <c r="F120" s="28"/>
@@ -7515,7 +7515,7 @@
         <v>1500</v>
       </c>
       <c r="M120" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N120" s="31"/>
       <c r="O120" s="31"/>
@@ -7534,16 +7534,16 @@
     </row>
     <row r="121" spans="1:27" s="32" customFormat="1">
       <c r="A121" s="25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B121" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C121" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D121" s="26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E121" s="27"/>
       <c r="F121" s="28"/>
@@ -7559,7 +7559,7 @@
         <v>2750</v>
       </c>
       <c r="M121" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N121" s="31"/>
       <c r="O121" s="31"/>
@@ -7578,16 +7578,16 @@
     </row>
     <row r="122" spans="1:27" s="32" customFormat="1">
       <c r="A122" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B122" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C122" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D122" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E122" s="27"/>
       <c r="F122" s="28"/>
@@ -7603,7 +7603,7 @@
         <v>10000</v>
       </c>
       <c r="M122" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N122" s="31"/>
       <c r="O122" s="31"/>
@@ -7622,16 +7622,16 @@
     </row>
     <row r="123" spans="1:27" s="32" customFormat="1">
       <c r="A123" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B123" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C123" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D123" s="26" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E123" s="27"/>
       <c r="F123" s="28"/>
@@ -7647,7 +7647,7 @@
         <v>1800</v>
       </c>
       <c r="M123" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N123" s="31"/>
       <c r="O123" s="31"/>
@@ -7666,7 +7666,7 @@
     </row>
     <row r="124" spans="1:27" s="32" customFormat="1">
       <c r="A124" s="25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B124" s="26" t="s">
         <v>28</v>
@@ -7675,7 +7675,7 @@
         <v>23</v>
       </c>
       <c r="D124" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E124" s="27"/>
       <c r="F124" s="28"/>
@@ -7691,7 +7691,7 @@
         <v>20250</v>
       </c>
       <c r="M124" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N124" s="31"/>
       <c r="O124" s="31"/>
@@ -7710,16 +7710,16 @@
     </row>
     <row r="125" spans="1:27" s="32" customFormat="1">
       <c r="A125" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="B125" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C125" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D125" s="26" t="s">
         <v>372</v>
-      </c>
-      <c r="B125" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C125" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D125" s="26" t="s">
-        <v>373</v>
       </c>
       <c r="E125" s="27"/>
       <c r="F125" s="28"/>
@@ -7735,7 +7735,7 @@
         <v>10000</v>
       </c>
       <c r="M125" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N125" s="31"/>
       <c r="O125" s="31"/>
@@ -7754,16 +7754,16 @@
     </row>
     <row r="126" spans="1:27" s="32" customFormat="1">
       <c r="A126" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="B126" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C126" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D126" s="26" t="s">
         <v>293</v>
-      </c>
-      <c r="B126" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C126" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D126" s="26" t="s">
-        <v>294</v>
       </c>
       <c r="E126" s="27"/>
       <c r="F126" s="28"/>
@@ -7779,7 +7779,7 @@
         <v>2100</v>
       </c>
       <c r="M126" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N126" s="31"/>
       <c r="O126" s="31"/>
@@ -7798,16 +7798,16 @@
     </row>
     <row r="127" spans="1:27" s="32" customFormat="1">
       <c r="A127" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="B127" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="B127" s="26" t="s">
+      <c r="C127" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127" s="26" t="s">
         <v>296</v>
-      </c>
-      <c r="C127" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D127" s="26" t="s">
-        <v>297</v>
       </c>
       <c r="E127" s="27"/>
       <c r="F127" s="28"/>
@@ -7823,7 +7823,7 @@
         <v>1500</v>
       </c>
       <c r="M127" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N127" s="31"/>
       <c r="O127" s="31"/>
@@ -7842,16 +7842,16 @@
     </row>
     <row r="128" spans="1:27" s="32" customFormat="1">
       <c r="A128" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="B128" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C128" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D128" s="26" t="s">
         <v>298</v>
-      </c>
-      <c r="B128" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="C128" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D128" s="26" t="s">
-        <v>299</v>
       </c>
       <c r="E128" s="27"/>
       <c r="F128" s="28"/>
@@ -7867,7 +7867,7 @@
         <v>16919</v>
       </c>
       <c r="M128" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N128" s="31"/>
       <c r="O128" s="31"/>
@@ -7886,7 +7886,7 @@
     </row>
     <row r="129" spans="1:27" s="32" customFormat="1">
       <c r="A129" s="25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B129" s="26" t="s">
         <v>25</v>
@@ -7895,7 +7895,7 @@
         <v>23</v>
       </c>
       <c r="D129" s="26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E129" s="27"/>
       <c r="F129" s="28"/>
@@ -7911,7 +7911,7 @@
         <v>3000</v>
       </c>
       <c r="M129" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N129" s="31"/>
       <c r="O129" s="31"/>
@@ -7930,16 +7930,16 @@
     </row>
     <row r="130" spans="1:27" s="32" customFormat="1">
       <c r="A130" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="B130" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="B130" s="26" t="s">
+      <c r="C130" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D130" s="26" t="s">
         <v>303</v>
-      </c>
-      <c r="C130" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D130" s="26" t="s">
-        <v>304</v>
       </c>
       <c r="E130" s="27"/>
       <c r="F130" s="28"/>
@@ -7955,7 +7955,7 @@
         <v>1500</v>
       </c>
       <c r="M130" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N130" s="31"/>
       <c r="O130" s="31"/>
@@ -7974,16 +7974,16 @@
     </row>
     <row r="131" spans="1:27" s="32" customFormat="1">
       <c r="A131" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="B131" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="B131" s="26" t="s">
+      <c r="C131" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D131" s="26" t="s">
         <v>306</v>
-      </c>
-      <c r="C131" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D131" s="26" t="s">
-        <v>307</v>
       </c>
       <c r="E131" s="27"/>
       <c r="F131" s="28"/>
@@ -7999,7 +7999,7 @@
         <v>2000</v>
       </c>
       <c r="M131" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N131" s="31"/>
       <c r="O131" s="31"/>
@@ -8018,16 +8018,16 @@
     </row>
     <row r="132" spans="1:27" s="32" customFormat="1">
       <c r="A132" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="B132" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="B132" s="26" t="s">
+      <c r="C132" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D132" s="26" t="s">
         <v>309</v>
-      </c>
-      <c r="C132" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D132" s="26" t="s">
-        <v>310</v>
       </c>
       <c r="E132" s="27"/>
       <c r="F132" s="28"/>
@@ -8043,7 +8043,7 @@
         <v>2400</v>
       </c>
       <c r="M132" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N132" s="31"/>
       <c r="O132" s="31"/>
@@ -8062,16 +8062,16 @@
     </row>
     <row r="133" spans="1:27" s="32" customFormat="1">
       <c r="A133" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="B133" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="B133" s="26" t="s">
+      <c r="C133" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D133" s="26" t="s">
         <v>312</v>
-      </c>
-      <c r="C133" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D133" s="26" t="s">
-        <v>313</v>
       </c>
       <c r="E133" s="27"/>
       <c r="F133" s="28"/>
@@ -8087,7 +8087,7 @@
         <v>1000</v>
       </c>
       <c r="M133" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N133" s="31"/>
       <c r="O133" s="31"/>
@@ -8106,16 +8106,16 @@
     </row>
     <row r="134" spans="1:27" s="32" customFormat="1">
       <c r="A134" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="B134" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C134" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D134" s="26" t="s">
         <v>314</v>
-      </c>
-      <c r="B134" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C134" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D134" s="26" t="s">
-        <v>315</v>
       </c>
       <c r="E134" s="27"/>
       <c r="F134" s="28"/>
@@ -8131,7 +8131,7 @@
         <v>5500</v>
       </c>
       <c r="M134" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N134" s="31"/>
       <c r="O134" s="31"/>
@@ -8150,16 +8150,16 @@
     </row>
     <row r="135" spans="1:27" s="32" customFormat="1">
       <c r="A135" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="B135" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="B135" s="26" t="s">
-        <v>317</v>
-      </c>
       <c r="C135" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D135" s="26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E135" s="27"/>
       <c r="F135" s="28"/>
@@ -8175,7 +8175,7 @@
         <v>2106</v>
       </c>
       <c r="M135" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N135" s="31"/>
       <c r="O135" s="31"/>
@@ -8194,16 +8194,16 @@
     </row>
     <row r="136" spans="1:27" s="32" customFormat="1">
       <c r="A136" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="B136" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C136" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D136" s="26" t="s">
         <v>318</v>
-      </c>
-      <c r="B136" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C136" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D136" s="26" t="s">
-        <v>319</v>
       </c>
       <c r="E136" s="27"/>
       <c r="F136" s="28"/>
@@ -8219,7 +8219,7 @@
         <v>1500</v>
       </c>
       <c r="M136" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N136" s="31"/>
       <c r="O136" s="31"/>
@@ -8238,16 +8238,16 @@
     </row>
     <row r="137" spans="1:27" s="32" customFormat="1">
       <c r="A137" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="B137" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="B137" s="26" t="s">
+      <c r="C137" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D137" s="26" t="s">
         <v>321</v>
-      </c>
-      <c r="C137" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D137" s="26" t="s">
-        <v>322</v>
       </c>
       <c r="E137" s="27"/>
       <c r="F137" s="28"/>
@@ -8263,7 +8263,7 @@
         <v>1500</v>
       </c>
       <c r="M137" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N137" s="31"/>
       <c r="O137" s="31"/>
@@ -8282,16 +8282,16 @@
     </row>
     <row r="138" spans="1:27" s="32" customFormat="1">
       <c r="A138" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="B138" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="B138" s="26" t="s">
+      <c r="C138" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D138" s="26" t="s">
         <v>324</v>
-      </c>
-      <c r="C138" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D138" s="26" t="s">
-        <v>325</v>
       </c>
       <c r="E138" s="27"/>
       <c r="F138" s="28"/>
@@ -8307,7 +8307,7 @@
         <v>2000</v>
       </c>
       <c r="M138" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N138" s="31"/>
       <c r="O138" s="31"/>
@@ -8326,16 +8326,16 @@
     </row>
     <row r="139" spans="1:27" s="32" customFormat="1">
       <c r="A139" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="B139" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C139" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D139" s="26" t="s">
         <v>326</v>
-      </c>
-      <c r="B139" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C139" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D139" s="26" t="s">
-        <v>327</v>
       </c>
       <c r="E139" s="27"/>
       <c r="F139" s="28"/>
@@ -8351,7 +8351,7 @@
         <v>1000</v>
       </c>
       <c r="M139" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N139" s="31"/>
       <c r="O139" s="31"/>
@@ -8370,16 +8370,16 @@
     </row>
     <row r="140" spans="1:27" s="32" customFormat="1">
       <c r="A140" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="B140" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C140" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D140" s="26" t="s">
         <v>328</v>
-      </c>
-      <c r="B140" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C140" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D140" s="26" t="s">
-        <v>329</v>
       </c>
       <c r="E140" s="27"/>
       <c r="F140" s="28"/>
@@ -8395,7 +8395,7 @@
         <v>3200</v>
       </c>
       <c r="M140" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N140" s="31"/>
       <c r="O140" s="31"/>
@@ -8414,16 +8414,16 @@
     </row>
     <row r="141" spans="1:27" s="32" customFormat="1">
       <c r="A141" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="B141" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C141" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D141" s="26" t="s">
         <v>330</v>
-      </c>
-      <c r="B141" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C141" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D141" s="26" t="s">
-        <v>331</v>
       </c>
       <c r="E141" s="27"/>
       <c r="F141" s="28"/>
@@ -8439,7 +8439,7 @@
         <v>38000</v>
       </c>
       <c r="M141" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N141" s="31"/>
       <c r="O141" s="31"/>
@@ -8458,16 +8458,16 @@
     </row>
     <row r="142" spans="1:27" s="32" customFormat="1">
       <c r="A142" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="B142" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C142" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D142" s="26" t="s">
         <v>332</v>
-      </c>
-      <c r="B142" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C142" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D142" s="26" t="s">
-        <v>333</v>
       </c>
       <c r="E142" s="27"/>
       <c r="F142" s="28"/>
@@ -8483,7 +8483,7 @@
         <v>4320</v>
       </c>
       <c r="M142" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N142" s="31"/>
       <c r="O142" s="31"/>
@@ -8502,16 +8502,16 @@
     </row>
     <row r="143" spans="1:27" s="32" customFormat="1">
       <c r="A143" s="25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B143" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C143" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D143" s="26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E143" s="27"/>
       <c r="F143" s="28"/>
@@ -8527,7 +8527,7 @@
         <v>5840</v>
       </c>
       <c r="M143" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N143" s="31"/>
       <c r="O143" s="31"/>
@@ -8546,7 +8546,7 @@
     </row>
     <row r="144" spans="1:27" s="32" customFormat="1">
       <c r="A144" s="25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B144" s="26" t="s">
         <v>28</v>
@@ -8555,7 +8555,7 @@
         <v>23</v>
       </c>
       <c r="D144" s="26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E144" s="27"/>
       <c r="F144" s="28"/>
@@ -8571,7 +8571,7 @@
         <v>8040</v>
       </c>
       <c r="M144" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N144" s="31"/>
       <c r="O144" s="31"/>
@@ -8590,16 +8590,16 @@
     </row>
     <row r="145" spans="1:27" s="32" customFormat="1">
       <c r="A145" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="B145" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="B145" s="26" t="s">
+      <c r="C145" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D145" s="26" t="s">
         <v>337</v>
-      </c>
-      <c r="C145" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D145" s="26" t="s">
-        <v>338</v>
       </c>
       <c r="E145" s="27"/>
       <c r="F145" s="28"/>
@@ -8615,7 +8615,7 @@
         <v>1000</v>
       </c>
       <c r="M145" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N145" s="31"/>
       <c r="O145" s="31"/>
@@ -8634,16 +8634,16 @@
     </row>
     <row r="146" spans="1:27" s="32" customFormat="1">
       <c r="A146" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="B146" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="B146" s="26" t="s">
+      <c r="C146" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D146" s="26" t="s">
         <v>340</v>
-      </c>
-      <c r="C146" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D146" s="26" t="s">
-        <v>341</v>
       </c>
       <c r="E146" s="27"/>
       <c r="F146" s="28"/>
@@ -8659,7 +8659,7 @@
         <v>1650</v>
       </c>
       <c r="M146" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N146" s="31"/>
       <c r="O146" s="31"/>
@@ -8678,7 +8678,7 @@
     </row>
     <row r="147" spans="1:27" s="32" customFormat="1">
       <c r="A147" s="25" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B147" s="26" t="s">
         <v>28</v>
@@ -8687,7 +8687,7 @@
         <v>23</v>
       </c>
       <c r="D147" s="26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E147" s="27"/>
       <c r="F147" s="28"/>
@@ -8703,7 +8703,7 @@
         <v>7500</v>
       </c>
       <c r="M147" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N147" s="31"/>
       <c r="O147" s="31"/>
@@ -8722,7 +8722,7 @@
     </row>
     <row r="148" spans="1:27" s="32" customFormat="1">
       <c r="A148" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B148" s="26" t="s">
         <v>25</v>
@@ -8731,7 +8731,7 @@
         <v>23</v>
       </c>
       <c r="D148" s="26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E148" s="27"/>
       <c r="F148" s="28"/>
@@ -8747,7 +8747,7 @@
         <v>500</v>
       </c>
       <c r="M148" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N148" s="31"/>
       <c r="O148" s="31"/>
@@ -8766,7 +8766,7 @@
     </row>
     <row r="149" spans="1:27" s="32" customFormat="1">
       <c r="A149" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B149" s="26" t="s">
         <v>28</v>
@@ -8775,7 +8775,7 @@
         <v>23</v>
       </c>
       <c r="D149" s="26" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E149" s="27"/>
       <c r="F149" s="28"/>
@@ -8791,7 +8791,7 @@
         <v>1200</v>
       </c>
       <c r="M149" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N149" s="31"/>
       <c r="O149" s="31"/>
@@ -8810,16 +8810,16 @@
     </row>
     <row r="150" spans="1:27" s="32" customFormat="1">
       <c r="A150" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B150" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C150" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D150" s="26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E150" s="27"/>
       <c r="F150" s="28"/>
@@ -8835,7 +8835,7 @@
         <v>700</v>
       </c>
       <c r="M150" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N150" s="31"/>
       <c r="O150" s="31"/>
@@ -8854,16 +8854,16 @@
     </row>
     <row r="151" spans="1:27" s="32" customFormat="1">
       <c r="A151" s="25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B151" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C151" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D151" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E151" s="27"/>
       <c r="F151" s="28"/>
@@ -8879,7 +8879,7 @@
         <v>4000</v>
       </c>
       <c r="M151" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N151" s="31"/>
       <c r="O151" s="31"/>
@@ -8898,16 +8898,16 @@
     </row>
     <row r="152" spans="1:27" s="32" customFormat="1">
       <c r="A152" s="25" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B152" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C152" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D152" s="26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E152" s="27"/>
       <c r="F152" s="28"/>
@@ -8923,7 +8923,7 @@
         <v>2000</v>
       </c>
       <c r="M152" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N152" s="31"/>
       <c r="O152" s="31"/>
@@ -8942,7 +8942,7 @@
     </row>
     <row r="153" spans="1:27" s="32" customFormat="1">
       <c r="A153" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B153" s="26" t="s">
         <v>25</v>
@@ -8951,7 +8951,7 @@
         <v>23</v>
       </c>
       <c r="D153" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E153" s="27"/>
       <c r="F153" s="28"/>
@@ -8967,7 +8967,7 @@
         <v>10000</v>
       </c>
       <c r="M153" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N153" s="31"/>
       <c r="O153" s="31"/>
@@ -8986,7 +8986,7 @@
     </row>
     <row r="154" spans="1:27" s="32" customFormat="1">
       <c r="A154" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B154" s="26" t="s">
         <v>25</v>
@@ -8995,7 +8995,7 @@
         <v>23</v>
       </c>
       <c r="D154" s="26" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E154" s="27"/>
       <c r="F154" s="28"/>
@@ -9011,7 +9011,7 @@
         <v>3000</v>
       </c>
       <c r="M154" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N154" s="31"/>
       <c r="O154" s="31"/>
@@ -9030,7 +9030,7 @@
     </row>
     <row r="155" spans="1:27" s="32" customFormat="1">
       <c r="A155" s="25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B155" s="26" t="s">
         <v>25</v>
@@ -9039,7 +9039,7 @@
         <v>23</v>
       </c>
       <c r="D155" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E155" s="27"/>
       <c r="F155" s="28"/>
@@ -9055,7 +9055,7 @@
         <v>1000</v>
       </c>
       <c r="M155" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N155" s="31"/>
       <c r="O155" s="31"/>
@@ -9074,7 +9074,7 @@
     </row>
     <row r="156" spans="1:27" s="32" customFormat="1">
       <c r="A156" s="25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B156" s="26" t="s">
         <v>25</v>
@@ -9083,7 +9083,7 @@
         <v>23</v>
       </c>
       <c r="D156" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E156" s="27"/>
       <c r="F156" s="28"/>
@@ -9099,7 +9099,7 @@
         <v>8000</v>
       </c>
       <c r="M156" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N156" s="31"/>
       <c r="O156" s="31"/>
@@ -9118,7 +9118,7 @@
     </row>
     <row r="157" spans="1:27" s="32" customFormat="1">
       <c r="A157" s="25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B157" s="26" t="s">
         <v>25</v>
@@ -9127,7 +9127,7 @@
         <v>23</v>
       </c>
       <c r="D157" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E157" s="27"/>
       <c r="F157" s="28"/>
@@ -9143,7 +9143,7 @@
         <v>3000</v>
       </c>
       <c r="M157" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N157" s="31"/>
       <c r="O157" s="31"/>
@@ -9162,16 +9162,16 @@
     </row>
     <row r="158" spans="1:27" s="32" customFormat="1">
       <c r="A158" s="25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B158" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="C158" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D158" s="26" t="s">
         <v>321</v>
-      </c>
-      <c r="C158" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D158" s="26" t="s">
-        <v>322</v>
       </c>
       <c r="E158" s="27"/>
       <c r="F158" s="28"/>
@@ -9187,7 +9187,7 @@
         <v>1000</v>
       </c>
       <c r="M158" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N158" s="31"/>
       <c r="O158" s="31"/>
@@ -9206,7 +9206,7 @@
     </row>
     <row r="159" spans="1:27" s="32" customFormat="1">
       <c r="A159" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B159" s="26" t="s">
         <v>25</v>
@@ -9215,7 +9215,7 @@
         <v>23</v>
       </c>
       <c r="D159" s="26" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E159" s="27"/>
       <c r="F159" s="28"/>
@@ -9231,7 +9231,7 @@
         <v>4500</v>
       </c>
       <c r="M159" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N159" s="31"/>
       <c r="O159" s="31"/>
@@ -9250,7 +9250,7 @@
     </row>
     <row r="160" spans="1:27" s="32" customFormat="1">
       <c r="A160" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B160" s="26" t="s">
         <v>25</v>
@@ -9259,7 +9259,7 @@
         <v>23</v>
       </c>
       <c r="D160" s="26" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E160" s="27"/>
       <c r="F160" s="28"/>
@@ -9275,7 +9275,7 @@
         <v>500</v>
       </c>
       <c r="M160" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N160" s="31"/>
       <c r="O160" s="31"/>
@@ -9344,7 +9344,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B2" s="21">
         <v>2016</v>
@@ -9367,7 +9367,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B3" s="21">
         <v>2016</v>
@@ -9390,7 +9390,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B4" s="21">
         <v>2016</v>
@@ -9413,7 +9413,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B5" s="21">
         <v>2016</v>
@@ -9436,7 +9436,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B6" s="21">
         <v>2016</v>
@@ -9453,7 +9453,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B7" s="21">
         <v>2016</v>
@@ -9476,7 +9476,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B8" s="21">
         <v>2016</v>
@@ -9493,7 +9493,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B9" s="21">
         <v>2016</v>
@@ -9510,7 +9510,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B10" s="21">
         <v>2016</v>
@@ -9527,7 +9527,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B11" s="21">
         <v>2016</v>
